--- a/食品標準成分表示_生野菜.xlsx
+++ b/食品標準成分表示_生野菜.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D81B56-B0C6-4607-975E-23A6DA5AA4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66C087E-46E6-4122-AE15-410ED63219AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="0" windowWidth="11280" windowHeight="14440" xr2:uid="{18C4C62A-A552-4576-9221-832CBE6C81EC}"/>
+    <workbookView xWindow="5640" yWindow="2130" windowWidth="16920" windowHeight="10540" xr2:uid="{18C4C62A-A552-4576-9221-832CBE6C81EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -290,9 +290,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>（キャベツ類）　キャベツ　結球葉　生</t>
-  </si>
-  <si>
     <t>(0)</t>
   </si>
   <si>
@@ -308,97 +305,13 @@
     <t>0.30</t>
   </si>
   <si>
-    <t>ほうれんそう　葉　通年平均　生</t>
-  </si>
-  <si>
     <t>0.20</t>
   </si>
   <si>
-    <t>はくさい　結球葉　生</t>
-  </si>
-  <si>
-    <t>（ねぎ類）　根深ねぎ　葉　軟白　生</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>（レタス類）　レタス　土耕栽培　結球葉　生</t>
-  </si>
-  <si>
-    <t>（もやし類）　だいずもやし　生</t>
-  </si>
-  <si>
-    <t>ブロッコリー　花序　生</t>
-  </si>
-  <si>
     <t>0.10</t>
-  </si>
-  <si>
-    <t>ブロッコリー　花序　ゆで</t>
-  </si>
-  <si>
-    <t>アスパラガス　若茎　生</t>
-  </si>
-  <si>
-    <t>＜いも類＞　（さつまいも類）　さつまいも　塊根　皮つき　生</t>
-  </si>
-  <si>
-    <t>＜いも類＞　じゃがいも　塊茎　皮なし　生</t>
-  </si>
-  <si>
-    <t>＜いも類＞　（さといも類）　さといも　球茎　水煮</t>
-  </si>
-  <si>
-    <t>（だいこん類）　だいこん　根　皮なし　生</t>
-  </si>
-  <si>
-    <t>（にんじん類）　にんじん　根　皮なし　生</t>
-  </si>
-  <si>
-    <t>（ごぼう類）　ごぼう　根　生</t>
-  </si>
-  <si>
-    <t>（たまねぎ類）　たまねぎ　りん茎　生</t>
-  </si>
-  <si>
-    <t>れんこん　根茎　ゆで</t>
-  </si>
-  <si>
-    <t>＜いも類＞　（やまのいも類）　ながいも　ながいも　塊根　生</t>
-  </si>
-  <si>
-    <t>（しょうが類）　しょうが　根茎　皮なし　生</t>
-  </si>
-  <si>
-    <t>えだまめ　ゆで</t>
-  </si>
-  <si>
-    <t>いんげんまめ　さやいんげん　若ざや　ゆで</t>
-  </si>
-  <si>
-    <t>（かぼちゃ類）　西洋かぼちゃ　果実　生</t>
-  </si>
-  <si>
-    <t>きゅうり　果実　生</t>
-  </si>
-  <si>
-    <t>（なす類）　なす　果実　生</t>
-  </si>
-  <si>
-    <t>（トマト類）　赤色トマト　果実　生</t>
-  </si>
-  <si>
-    <t>（ピーマン類）　青ピーマン　果実　生</t>
-  </si>
-  <si>
-    <t>しいたけ　生しいたけ　菌床栽培　生</t>
-  </si>
-  <si>
-    <t>えのきたけ　生</t>
-  </si>
-  <si>
-    <t>（しめじ類）　ぶなしめじ　生</t>
   </si>
   <si>
     <t>3.0</t>
@@ -423,6 +336,121 @@
     <rPh sb="15" eb="18">
       <t>コウロウショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャベツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほうれんそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はくさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レタス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もやし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロッコリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アスパラガス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さつまいも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゃがいも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さといも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいこん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にんじん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごぼう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たまねぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れんこん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ながいも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょうが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えだまめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さやいんげん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぼちゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゅうり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トマト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピーマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生しいたけ</t>
+    <rPh sb="0" eb="1">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えのきたけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しめじ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -722,50 +750,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -780,6 +769,45 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
@@ -1117,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F865F330-778C-4E9C-9BD7-E60A19A7DEAD}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1129,171 +1157,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="22"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="22"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="7"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="22"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="6"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
@@ -1305,20 +1333,20 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="21"/>
       <c r="N9" s="5"/>
       <c r="O9" s="1" t="s">
         <v>21</v>
@@ -1326,7 +1354,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -1353,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>0.04</v>
@@ -1373,7 +1401,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1391,7 +1419,7 @@
         <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11">
         <v>0.7</v>
@@ -1400,13 +1428,13 @@
         <v>350</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
         <v>0.11</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M11">
         <v>0.14000000000000001</v>
@@ -1420,7 +1448,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -1447,7 +1475,7 @@
         <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
         <v>0.03</v>
@@ -1467,7 +1495,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>40</v>
@@ -1494,7 +1522,7 @@
         <v>7</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
         <v>0.05</v>
@@ -1514,7 +1542,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1541,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14">
         <v>0.05</v>
@@ -1561,7 +1589,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -1588,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15">
         <v>0.08</v>
@@ -1608,7 +1636,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>35</v>
@@ -1635,7 +1663,7 @@
         <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16">
         <v>0.17</v>
@@ -1644,7 +1672,7 @@
         <v>0.23</v>
       </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>220</v>
@@ -1655,445 +1683,445 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="D17">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="E17">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F17">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I17">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K17">
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L17">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="M17">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="N17">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="O17">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="D18">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G18">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H18">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18">
-        <v>0.14000000000000001</v>
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
       </c>
       <c r="L18">
-        <v>0.15</v>
-      </c>
-      <c r="M18">
-        <v>0.12</v>
+        <v>0.02</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
       </c>
       <c r="N18">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="O18">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>2.8</v>
+        <v>8.9</v>
       </c>
       <c r="D19">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G19">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H19">
         <v>0.2</v>
       </c>
-      <c r="I19">
-        <v>3</v>
+      <c r="I19" t="s">
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="K19">
+        <v>0.09</v>
       </c>
       <c r="L19">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N19">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="O19">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>8.9</v>
+        <v>2.4</v>
       </c>
       <c r="D20">
-        <v>410</v>
+        <v>560</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20">
         <v>0.4</v>
       </c>
       <c r="H20">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I20" t="s">
         <v>25</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K20">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="L20">
-        <v>0.03</v>
-      </c>
-      <c r="M20" t="s">
-        <v>29</v>
+        <v>0.02</v>
+      </c>
+      <c r="M20">
+        <v>0.14000000000000001</v>
       </c>
       <c r="N20">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O20">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="D21">
-        <v>560</v>
+        <v>230</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H21">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="L21">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M21">
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="N21">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="D22">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="E22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>0.2</v>
       </c>
       <c r="H22">
-        <v>0.1</v>
-      </c>
-      <c r="I22" t="s">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>630</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22">
+        <v>0.04</v>
+      </c>
+      <c r="L22">
+        <v>0.03</v>
+      </c>
+      <c r="M22">
+        <v>0.09</v>
+      </c>
+      <c r="N22">
         <v>23</v>
       </c>
-      <c r="J22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22">
-        <v>0.02</v>
-      </c>
-      <c r="L22">
-        <v>0.01</v>
-      </c>
-      <c r="M22">
-        <v>0.05</v>
-      </c>
-      <c r="N22">
-        <v>33</v>
-      </c>
       <c r="O22">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23">
-        <v>2.8</v>
+        <v>5.7</v>
       </c>
       <c r="D23">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="E23">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G23">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H23">
-        <v>0.2</v>
-      </c>
-      <c r="I23">
-        <v>630</v>
+        <v>0.8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K23">
+        <v>0.05</v>
+      </c>
+      <c r="L23">
         <v>0.04</v>
       </c>
-      <c r="L23">
-        <v>0.03</v>
-      </c>
-      <c r="M23">
-        <v>0.09</v>
+      <c r="M23" t="s">
+        <v>29</v>
       </c>
       <c r="N23">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="D24">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="E24">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F24">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="G24">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H24">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K24">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="L24">
-        <v>0.04</v>
-      </c>
-      <c r="M24" t="s">
-        <v>36</v>
+        <v>0.01</v>
+      </c>
+      <c r="M24">
+        <v>0.14000000000000001</v>
       </c>
       <c r="N24">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D25">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="E25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G25">
+        <v>0.4</v>
+      </c>
+      <c r="H25">
         <v>0.3</v>
-      </c>
-      <c r="H25">
-        <v>0.2</v>
       </c>
       <c r="I25" t="s">
         <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K25">
-        <v>0.04</v>
-      </c>
-      <c r="L25">
-        <v>0.01</v>
+        <v>0.06</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N25">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O25">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>2.2999999999999998</v>
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G26">
         <v>0.4</v>
@@ -2102,280 +2130,280 @@
         <v>0.3</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26">
-        <v>0.06</v>
-      </c>
-      <c r="L26" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26">
+        <v>0.02</v>
       </c>
       <c r="M26">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="N26">
         <v>8</v>
       </c>
       <c r="O26">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>2.1</v>
       </c>
       <c r="D27">
-        <v>430</v>
+        <v>270</v>
       </c>
       <c r="E27">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G27">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H27">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="K27">
+        <v>0.03</v>
       </c>
       <c r="L27">
         <v>0.02</v>
       </c>
       <c r="M27">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="N27">
         <v>8</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C28">
-        <v>2.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D28">
-        <v>270</v>
+        <v>490</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="F28">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G28">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H28">
-        <v>0.1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>26</v>
+        <v>1.3</v>
+      </c>
+      <c r="I28">
+        <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K28">
-        <v>0.03</v>
+        <v>0.24</v>
       </c>
       <c r="L28">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="M28">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>4.5999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="D29">
-        <v>490</v>
+        <v>270</v>
       </c>
       <c r="E29">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F29">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G29">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H29">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="I29">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K29">
-        <v>0.24</v>
-      </c>
-      <c r="L29">
-        <v>0.13</v>
+        <v>0.06</v>
+      </c>
+      <c r="L29" t="s">
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N29">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c r="O29">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D30">
-        <v>270</v>
+        <v>430</v>
       </c>
       <c r="E30">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F30">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G30">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H30">
         <v>0.3</v>
       </c>
       <c r="I30">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30">
-        <v>0.06</v>
-      </c>
-      <c r="L30" t="s">
-        <v>36</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L30">
+        <v>0.08</v>
       </c>
       <c r="M30">
-        <v>7.0000000000000007E-2</v>
+        <v>0.23</v>
       </c>
       <c r="N30">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="O30">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>3.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D31">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="E31">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>0.3</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31">
+        <v>0.03</v>
+      </c>
+      <c r="L31">
+        <v>0.03</v>
+      </c>
+      <c r="M31">
+        <v>0.05</v>
+      </c>
+      <c r="N31">
         <v>25</v>
       </c>
-      <c r="G31">
-        <v>0.4</v>
-      </c>
-      <c r="H31">
-        <v>0.3</v>
-      </c>
-      <c r="I31">
-        <v>210</v>
-      </c>
-      <c r="J31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L31">
-        <v>0.08</v>
-      </c>
-      <c r="M31">
-        <v>0.23</v>
-      </c>
-      <c r="N31">
-        <v>42</v>
-      </c>
       <c r="O31">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>1.1000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D32">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E32">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>0.3</v>
@@ -2384,355 +2412,317 @@
         <v>0.2</v>
       </c>
       <c r="I32">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K32">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L32">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="M32">
         <v>0.05</v>
       </c>
       <c r="N32">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="O32">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>2.2000000000000002</v>
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H33">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K33">
         <v>0.05</v>
       </c>
       <c r="L33">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M33">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="N33">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>2.2999999999999998</v>
       </c>
       <c r="D34">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G34">
+        <v>0.4</v>
+      </c>
+      <c r="H34">
         <v>0.2</v>
       </c>
-      <c r="H34">
-        <v>0.1</v>
-      </c>
       <c r="I34">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K34">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L34">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M34">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="N34">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O34">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>2.2999999999999998</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D35">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="E35">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G35">
         <v>0.4</v>
       </c>
       <c r="H35">
-        <v>0.2</v>
-      </c>
-      <c r="I35">
-        <v>33</v>
-      </c>
-      <c r="J35" t="s">
-        <v>23</v>
+        <v>0.9</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35">
+        <v>0.3</v>
       </c>
       <c r="K35">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="L35">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="M35">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="N35">
-        <v>26</v>
-      </c>
-      <c r="O35">
-        <v>76</v>
+        <v>49</v>
+      </c>
+      <c r="O35" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>4.9000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="D36">
-        <v>290</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
+        <v>340</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G36">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H36">
+        <v>0.6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36">
         <v>0.9</v>
       </c>
-      <c r="I36" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36">
-        <v>0.3</v>
-      </c>
       <c r="K36">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="L36">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="M36">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="N36">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="O36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B37">
-        <v>15</v>
-      </c>
-      <c r="C37">
-        <v>3.9</v>
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>340</v>
-      </c>
-      <c r="E37" t="s">
-        <v>26</v>
+        <v>370</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G37">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H37">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J37">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="K37">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="L37">
         <v>0.17</v>
       </c>
       <c r="M37">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="N37">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="O37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38">
-        <v>370</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>2500</v>
+      </c>
+      <c r="E39">
+        <v>800</v>
+      </c>
+      <c r="F39">
+        <v>340</v>
+      </c>
+      <c r="G39">
+        <v>7.5</v>
+      </c>
+      <c r="H39">
         <v>11</v>
       </c>
-      <c r="G38">
-        <v>0.5</v>
-      </c>
-      <c r="H38">
-        <v>0.5</v>
-      </c>
-      <c r="I38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38">
-        <v>0.5</v>
-      </c>
-      <c r="K38">
-        <v>0.15</v>
-      </c>
-      <c r="L38">
-        <v>0.17</v>
-      </c>
-      <c r="M38">
-        <v>0.09</v>
-      </c>
-      <c r="N38">
-        <v>29</v>
-      </c>
-      <c r="O38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40">
-        <v>20</v>
-      </c>
-      <c r="D40">
-        <v>2500</v>
-      </c>
-      <c r="E40">
-        <v>800</v>
-      </c>
-      <c r="F40">
-        <v>340</v>
-      </c>
-      <c r="G40">
-        <v>7.5</v>
-      </c>
-      <c r="H40">
-        <v>11</v>
-      </c>
-      <c r="I40">
+      <c r="I39">
         <v>850</v>
       </c>
-      <c r="J40">
+      <c r="J39">
         <v>9</v>
       </c>
-      <c r="K40">
+      <c r="K39">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L40">
+      <c r="L39">
         <v>1.6</v>
       </c>
-      <c r="M40">
+      <c r="M39">
         <v>1.5</v>
       </c>
-      <c r="N40">
+      <c r="N39">
         <v>240</v>
       </c>
-      <c r="O40">
+      <c r="O39">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="N2:N8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="L2:L8"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B8"/>
@@ -2743,15 +2733,6 @@
     <mergeCell ref="G2:G8"/>
     <mergeCell ref="H2:H8"/>
     <mergeCell ref="O2:O8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="N2:N8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="L2:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
